--- a/data/trans_camb/P16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 1,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 0,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 0,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 0,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>337,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,59%</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 0,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 0,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,07%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,57; 224,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,53; 109,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,17; 224,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,64; 179,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,76; 151,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,9; 313,51</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; -0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 2,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 4,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 0,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 2,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,55; 83,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 13,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,5; 133,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,22; 118,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,73; 136,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,1; 227,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,15; 51,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,86; 34,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,88; 160,54</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; -1,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; -2,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; -2,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 4,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,03; -0,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 1,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 0,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; -2,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; -1,33</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,9%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,93; -27,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,13; -32,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,52; -35,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,62; 62,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,46; 0,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,68; 16,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,8; 2,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,86; -29,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,06; -19,15</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 1,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; -2,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,5; -3,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 6,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; -2,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,89; -0,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 3,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; -3,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; -2,57</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,97%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,7%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,46%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,18; 13,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,15; -30,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,31; -38,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 47,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,09; -15,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,96; -5,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; 25,91</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,96; -28,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,54; -20,29</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 0,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; -0,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; -0,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; -0,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; -0,84</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,5</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,23%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,06%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,7%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,8; 1,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,14; -33,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; -8,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 42,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,89; -6,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 37,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 16,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,62; -22,39</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 14,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,48</t>
+          <t>-0,26; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,1</t>
+          <t>-0,93; 0,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,83</t>
+          <t>-0,38; 0,74</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>150,19%</t>
+          <t>132,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>61,59%</t>
+          <t>48,76%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,29</t>
+          <t>-0,93; 1,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,97</t>
+          <t>-0,32; 0,94</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>55,29%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,17; 224,34</t>
+          <t>-60,05; 231,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 313,51</t>
+          <t>-40,44; 303,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,49</t>
+          <t>-2,23; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,12</t>
+          <t>-1,5; 3,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,66</t>
+          <t>-1,4; 1,55</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-24,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>-1,13%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 133,83</t>
+          <t>-76,42; 81,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 227,26</t>
+          <t>-44,21; 184,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 160,54</t>
+          <t>-47,41; 90,12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,64</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -2,32</t>
+          <t>-8,18; -2,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 1,03</t>
+          <t>-5,87; 0,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -1,33</t>
+          <t>-5,82; -1,49</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-66,66%</t>
+          <t>-68,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-20,63%</t>
+          <t>-23,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-41,9%</t>
+          <t>-44,13%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,52; -35,23</t>
+          <t>-83,23; -38,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 16,7</t>
+          <t>-49,08; 13,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,06; -19,15</t>
+          <t>-59,84; -22,22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,18</t>
+          <t>-5,09; 2,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -2,92</t>
+          <t>-6,48; 0,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -3,58</t>
+          <t>-6,01; 0,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,9</t>
+          <t>-5,5; 5,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -2,26</t>
+          <t>-11,44; -1,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,54</t>
+          <t>-14,37; -1,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,24</t>
+          <t>-4,33; 2,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -3,39</t>
+          <t>-7,96; -1,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,74; -2,57</t>
+          <t>-9,87; -1,93</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-21,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-54,7%</t>
+          <t>-50,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-56,45%</t>
+          <t>-47,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>-40,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-25,23%</t>
+          <t>-45,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-41,88%</t>
+          <t>-43,22%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-34,46%</t>
+          <t>-41,57%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 13,72</t>
+          <t>-63,53; 62,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,15; -30,51</t>
+          <t>-79,01; 9,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-70,31; -38,59</t>
+          <t>-74,14; 2,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 47,48</t>
+          <t>-29,1; 44,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,09; -15,11</t>
+          <t>-61,79; -12,48</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,96; -5,07</t>
+          <t>-78,95; -10,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 25,91</t>
+          <t>-33,91; 26,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-53,96; -28,22</t>
+          <t>-60,89; -20,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,54; -20,29</t>
+          <t>-71,61; -19,28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-10,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-11,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-6,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,03</t>
+          <t>-10,97; 2,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,86</t>
+          <t>-16,87; -4,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; -0,22</t>
+          <t>-17,22; -6,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,9</t>
+          <t>-1,09; 11,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; -0,26</t>
+          <t>-10,93; -0,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,65</t>
+          <t>-8,53; 1,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,62</t>
+          <t>-3,12; 5,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,84</t>
+          <t>-11,46; -3,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,5</t>
+          <t>-10,22; -2,52</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-28,29%</t>
+          <t>-24,22%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-54,23%</t>
+          <t>-57,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
+          <t>-62,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-25,21%</t>
+          <t>-31,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-35,39%</t>
+          <t>-41,8%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-36,81%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-51,53; 20,55</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-74,93; -31,82</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-78,05; -42,16</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 79,93</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-53,38; -0,77</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-40,04; 11,35</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 38,31</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-57,08; -20,33</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-51,04; -17,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 0,03</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; -0,86</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; -0,43</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 1,9</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; -0,26</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 1,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 0,62</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; -0,84</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 0,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-28,29%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-54,23%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-39,75%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-25,21%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-35,39%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-13,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-47,8; 1,86</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-68,14; -33,94</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-51,81; -8,47</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; -17,64</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-6,1; 42,58</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-41,89; -6,64</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 37,42</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-20,8; 25,14</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-16,41; 16,59</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-46,62; -22,39</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-18,64; 14,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-29,06; 4,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Edad-trans_camb.xlsx
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,55</t>
+          <t>-0,11; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,38</t>
+          <t>-0,13; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,0</t>
+          <t>-1,52; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,57</t>
+          <t>-1,01; 0,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,99</t>
+          <t>-0,83; 1,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,58</t>
+          <t>-0,42; 0,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,27</t>
+          <t>-0,64; 0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,74</t>
+          <t>-0,33; 0,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,93</t>
+          <t>-1,28; 0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,34</t>
+          <t>-1,51; 0,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,29</t>
+          <t>-1,06; 1,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,52</t>
+          <t>-0,65; 0,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,36</t>
+          <t>-0,74; 0,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,94</t>
+          <t>-0,35; 0,97</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,57; 224,75</t>
+          <t>-73,18; 183,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,53; 109,0</t>
+          <t>-90,42; 100,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 231,91</t>
+          <t>-61,43; 232,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,64; 179,92</t>
+          <t>-71,75; 241,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,76; 151,42</t>
+          <t>-80,18; 199,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 303,26</t>
+          <t>-50,32; 338,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,62</t>
+          <t>-2,52; 0,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,29</t>
+          <t>-2,95; -0,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,02</t>
+          <t>-2,3; 0,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,87</t>
+          <t>-2,11; 1,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,17</t>
+          <t>-1,78; 2,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,03</t>
+          <t>-1,48; 3,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,8</t>
+          <t>-1,7; 0,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,52</t>
+          <t>-1,77; 0,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,55</t>
+          <t>-1,41; 1,47</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,55; 83,71</t>
+          <t>-86,79; 87,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 13,36</t>
+          <t>-100,0; 19,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,42; 81,05</t>
+          <t>-79,81; 86,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 118,62</t>
+          <t>-56,83; 112,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,73; 136,12</t>
+          <t>-51,24; 139,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 184,92</t>
+          <t>-41,9; 204,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 51,25</t>
+          <t>-56,08; 48,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 34,19</t>
+          <t>-60,38; 42,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 90,12</t>
+          <t>-48,4; 88,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -1,64</t>
+          <t>-8,14; -1,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -2,23</t>
+          <t>-8,99; -2,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -2,45</t>
+          <t>-8,36; -2,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,2</t>
+          <t>-3,8; 4,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -0,07</t>
+          <t>-6,88; 0,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 0,77</t>
+          <t>-5,72; 1,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,15</t>
+          <t>-4,94; 0,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -2,07</t>
+          <t>-6,69; -1,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,82; -1,49</t>
+          <t>-5,77; -1,52</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-83,93; -27,19</t>
+          <t>-83,68; -24,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-87,13; -32,12</t>
+          <t>-88,39; -38,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,23; -38,1</t>
+          <t>-83,67; -40,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 62,58</t>
+          <t>-34,41; 62,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 0,25</t>
+          <t>-62,77; 5,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 13,11</t>
+          <t>-49,11; 17,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 2,04</t>
+          <t>-50,7; 3,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-68,86; -29,42</t>
+          <t>-68,28; -27,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -22,22</t>
+          <t>-58,7; -21,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 2,54</t>
+          <t>-5,08; 2,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,05</t>
+          <t>-6,71; -0,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,03</t>
+          <t>-6,39; -0,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,97</t>
+          <t>-5,48; 5,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -1,63</t>
+          <t>-11,15; -1,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -1,66</t>
+          <t>-14,18; -1,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,45</t>
+          <t>-4,02; 2,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,96; -1,9</t>
+          <t>-7,73; -1,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -1,93</t>
+          <t>-9,73; -1,78</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,53; 62,23</t>
+          <t>-64,13; 79,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 9,16</t>
+          <t>-78,26; 6,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,14; 2,01</t>
+          <t>-72,99; 1,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 44,37</t>
+          <t>-31,24; 43,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-61,79; -12,48</t>
+          <t>-60,56; -14,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,95; -10,98</t>
+          <t>-80,62; -7,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 26,23</t>
+          <t>-32,18; 28,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-60,89; -20,2</t>
+          <t>-59,78; -15,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-71,61; -19,28</t>
+          <t>-71,37; -17,51</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 2,69</t>
+          <t>-10,8; 2,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,87; -4,9</t>
+          <t>-16,46; -4,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,22; -6,36</t>
+          <t>-17,13; -5,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 11,54</t>
+          <t>-1,21; 10,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -0,2</t>
+          <t>-11,08; 0,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,36</t>
+          <t>-8,49; 0,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,83</t>
+          <t>-3,33; 6,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -3,16</t>
+          <t>-11,73; -3,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -2,52</t>
+          <t>-10,35; -2,88</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-51,53; 20,55</t>
+          <t>-50,86; 21,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-74,93; -31,82</t>
+          <t>-73,47; -30,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-78,05; -42,16</t>
+          <t>-76,49; -41,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 79,93</t>
+          <t>-5,54; 78,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -0,77</t>
+          <t>-53,78; 2,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 11,35</t>
+          <t>-40,02; 6,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 38,31</t>
+          <t>-16,92; 41,42</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -20,33</t>
+          <t>-56,91; -18,91</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-51,04; -17,5</t>
+          <t>-50,44; -19,55</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,03</t>
+          <t>-1,71; -0,03</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,86</t>
+          <t>-2,38; -0,88</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,97; -0,43</t>
+          <t>-1,95; -0,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,9</t>
+          <t>-0,33; 1,89</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,29; -0,26</t>
+          <t>-2,31; -0,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,18</t>
+          <t>-1,11; 1,02</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,62</t>
+          <t>-0,69; 0,67</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,84</t>
+          <t>-1,98; -0,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,16</t>
+          <t>-1,21; 0,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 1,86</t>
+          <t>-49,99; -0,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -33,94</t>
+          <t>-68,52; -34,48</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-58,66; -17,64</t>
+          <t>-56,79; -15,98</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 42,58</t>
+          <t>-6,03; 42,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-41,89; -6,64</t>
+          <t>-41,08; -6,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 25,14</t>
+          <t>-20,38; 22,36</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 16,59</t>
+          <t>-16,05; 18,43</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -22,39</t>
+          <t>-46,32; -21,57</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 4,48</t>
+          <t>-28,35; 2,89</t>
         </is>
       </c>
     </row>
